--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="50">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -162,22 +162,22 @@
     <t>TBD:</t>
   </si>
   <si>
-    <t>Arturs</t>
-  </si>
-  <si>
     <t>George</t>
   </si>
   <si>
     <t>Finn</t>
   </si>
   <si>
-    <t>Carol</t>
-  </si>
-  <si>
     <t>Frasier</t>
   </si>
   <si>
     <t>Chris</t>
+  </si>
+  <si>
+    <t>Carol Lo - 028</t>
+  </si>
+  <si>
+    <t>Patrick Brinson - 029</t>
   </si>
 </sst>
 </file>
@@ -281,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -925,6 +925,36 @@
       <left style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="dashed">
         <color indexed="64"/>
@@ -935,6 +965,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
@@ -944,8 +987,75 @@
       <top style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,8 +1066,17 @@
       <right style="medium">
         <color theme="2" tint="-0.499984740745262"/>
       </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="dashed">
         <color indexed="64"/>
@@ -965,42 +1084,144 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dashed">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
         <color indexed="64"/>
       </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1013,56 +1234,13 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1074,14 +1252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,18 +1264,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1163,31 +1326,175 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1196,154 +1503,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1626,343 +1855,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="4" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
+    <col min="2" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="3" customWidth="1"/>
+    <col min="11" max="29" width="10.28515625" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="1"/>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="S1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="4" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="4" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="82"/>
+      <c r="D8" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="86"/>
-      <c r="I9" s="25"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="71"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="85"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="107"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="106"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="29" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="66"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30" t="s">
+      <c r="C14" s="105"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="71"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="48"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="81"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="82"/>
+      <c r="G18" s="107"/>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="83"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="89"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="4" t="s">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="4" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="A1:G1"/>
@@ -1972,6 +2195,8 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1983,319 +2208,330 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="4" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
+    <col min="2" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="3" customWidth="1"/>
+    <col min="11" max="29" width="10.28515625" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="1"/>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="S1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="4" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="4" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="87"/>
-      <c r="I9" s="25"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="72"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="88"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="84"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="29" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="66"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="29" t="s">
+      <c r="C14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="48"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="76"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="77"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2307,312 +2543,322 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="4" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
+    <col min="2" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="3" customWidth="1"/>
+    <col min="11" max="29" width="10.28515625" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="1"/>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="S1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="4" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="4" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="29" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="86"/>
-      <c r="I9" s="25"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="71"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="85"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="84"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="29" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="64"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="54" t="s">
+      <c r="C14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="93"/>
+      <c r="D16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="23"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="29" t="s">
+      <c r="D18" s="74"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2630,312 +2876,322 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="4" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
+    <col min="2" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="3" customWidth="1"/>
+    <col min="11" max="29" width="10.28515625" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="1"/>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="S1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="4" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="4" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="30" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="4" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="31"/>
-      <c r="I9" s="25"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="76"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="84"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="30" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="75" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="31"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="76"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="29" t="s">
+      <c r="C14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="75" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="76"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="23"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="23"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30" t="s">
+      <c r="D18" s="73"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2957,300 +3213,311 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
-    <col min="2" max="7" width="25.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="4" customWidth="1"/>
-    <col min="11" max="29" width="10.28515625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="3.28515625" style="3" customWidth="1"/>
+    <col min="2" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="3" customWidth="1"/>
+    <col min="11" max="29" width="10.28515625" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="J1" s="1"/>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="S1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="4" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="4" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="4" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="I9" s="25"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="75" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="23"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="30" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="31"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="76"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="41"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Week 3" sheetId="3" r:id="rId3"/>
     <sheet name="Week 4" sheetId="4" r:id="rId4"/>
     <sheet name="Week 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Conditions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="80">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -159,32 +160,122 @@
     <t>Arturs Elksnis - 027</t>
   </si>
   <si>
-    <t>TBD:</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Finn</t>
-  </si>
-  <si>
-    <t>Frasier</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
     <t>Carol Lo - 028</t>
   </si>
   <si>
     <t>Patrick Brinson - 029</t>
+  </si>
+  <si>
+    <t>Finn Heath - 030</t>
+  </si>
+  <si>
+    <t>NFB</t>
+  </si>
+  <si>
+    <t>Tom Knowles</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Valentina Lo Gatto</t>
+  </si>
+  <si>
+    <t>Daniel Gosden</t>
+  </si>
+  <si>
+    <t>Gabriella Miles</t>
+  </si>
+  <si>
+    <t>Jakub Jezierski</t>
+  </si>
+  <si>
+    <t>Julian Hird</t>
+  </si>
+  <si>
+    <t>Arturs Elksnis</t>
+  </si>
+  <si>
+    <t>Carol Lo</t>
+  </si>
+  <si>
+    <t>Patrick Brinson</t>
+  </si>
+  <si>
+    <t>Finn Heath</t>
+  </si>
+  <si>
+    <t>Chris Bennett - 031</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Prev Condition</t>
+  </si>
+  <si>
+    <t>Chris Bennett</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>George Brayshaw - 032</t>
+  </si>
+  <si>
+    <t>George Brayshaw</t>
+  </si>
+  <si>
+    <t>TOM NEEDS A REDO SOMETIME ON FIRDAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,8 +327,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +378,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="72">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -489,13 +593,367 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="dashed">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -508,55 +966,113 @@
       <top style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right style="dashed">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -570,22 +1086,50 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
       <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color indexed="64"/>
       </right>
       <top style="dashed">
         <color indexed="64"/>
@@ -599,20 +1143,35 @@
       <left style="dashed">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="dashed">
         <color indexed="64"/>
       </right>
       <top/>
@@ -622,47 +1181,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dashed">
         <color indexed="64"/>
       </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color theme="2" tint="-0.499984740745262"/>
@@ -670,214 +1247,7 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -885,6 +1255,60 @@
       <right style="medium">
         <color theme="2" tint="-0.499984740745262"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
@@ -898,264 +1322,27 @@
       <right style="dashed">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="dashed">
         <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
       <right style="medium">
         <color theme="2" tint="-0.499984740745262"/>
       </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="dashed">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
         <color indexed="64"/>
       </left>
       <right style="dashed">
@@ -1168,73 +1355,29 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
-      </left>
-      <right style="dashed">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color indexed="64"/>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
       <right style="dashed">
         <color indexed="64"/>
       </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1242,7 +1385,65 @@
       <right style="medium">
         <color theme="2" tint="-0.499984740745262"/>
       </right>
-      <top/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
@@ -1252,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1329,257 +1530,365 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1855,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,15 +2182,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -1897,29 +2206,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -1958,16 +2267,16 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="75" t="s">
+      <c r="C6" s="103"/>
+      <c r="D6" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="57"/>
       <c r="I6" s="13"/>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -1977,14 +2286,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="106"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -1994,18 +2303,18 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="75" t="s">
+      <c r="C8" s="135"/>
+      <c r="D8" s="128" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="119" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="19"/>
@@ -2017,47 +2326,47 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="76"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="71"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="65"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="75" t="s">
+      <c r="C10" s="82"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="107"/>
+      <c r="G10" s="89"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="106"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="24" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="119" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2065,93 +2374,98 @@
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="56"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="75" t="s">
+      <c r="C14" s="87"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="119" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="61"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="75" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="128" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="112"/>
+      <c r="G16" s="111"/>
+    </row>
+    <row r="17" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="76"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="70"/>
-    </row>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="113"/>
+    </row>
+    <row r="18" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24" t="s">
+      <c r="D18" s="102"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="107"/>
-    </row>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="G18" s="119" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="89"/>
-    </row>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="129"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="38"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
@@ -2160,29 +2474,6 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2208,7 +2499,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,15 +2514,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -2247,29 +2538,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2308,16 +2599,22 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="119" t="s">
+        <v>45</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2327,15 +2624,15 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="I7" s="15"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="67"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2347,17 +2644,17 @@
       <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="119" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="F8" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="119" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="19"/>
@@ -2369,53 +2666,57 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="72"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="66"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>48</v>
+      <c r="G10" s="118" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="84"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="128" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="119" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2424,109 +2725,118 @@
         <v>17</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="56"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="75" t="s">
-        <v>48</v>
+      <c r="C14" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="137" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="115"/>
+      <c r="G14" s="119" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="76"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="138"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="119" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="38"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="119" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="66"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="128" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="119" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="46"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="129"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="67"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="119" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="41"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="119" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:G4"/>
@@ -2543,7 +2853,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,15 +2868,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -2582,29 +2892,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2643,16 +2953,24 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="119" t="s">
+        <v>45</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2662,14 +2980,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="67"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -2682,17 +3000,19 @@
       <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="24" t="s">
+      <c r="E8" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="119" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="19"/>
@@ -2704,53 +3024,57 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="71"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="65"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="127"/>
+      <c r="F10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>48</v>
+      <c r="G10" s="118" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="84"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="40"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="119" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="24" t="s">
+      <c r="F12" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="119" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2758,105 +3082,109 @@
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="54"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>48</v>
+      <c r="C14" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="118" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="25"/>
-      <c r="F14" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="115"/>
+      <c r="G14" s="119" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="42"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="118" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="119" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="118" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="119" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="57"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="119" t="s">
+        <v>44</v>
+      </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="38"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
     </row>
@@ -2876,7 +3204,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,15 +3219,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -2915,29 +3243,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2976,16 +3304,22 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="119" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="119" t="s">
+        <v>45</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2995,14 +3329,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="67"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -3015,17 +3349,17 @@
       <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="119" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="75" t="s">
+      <c r="F8" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="128" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="19"/>
@@ -3037,53 +3371,57 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="129"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="119" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>48</v>
+      <c r="G10" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="84"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="119" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="75" t="s">
+      <c r="F12" s="119" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="128" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3091,97 +3429,99 @@
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="76"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="129"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>48</v>
+      <c r="C14" s="119" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="75" t="s">
+      <c r="F14" s="115"/>
+      <c r="G14" s="128" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="76"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="129"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="119" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="119" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="119" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="119" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="57"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="38"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
@@ -3212,8 +3552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3228,15 +3568,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -3252,29 +3592,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="134"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3313,14 +3653,20 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="139" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="139" t="s">
+        <v>45</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -3330,14 +3676,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -3347,15 +3693,15 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="49"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="3" t="s">
@@ -3366,11 +3712,11 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="49"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
@@ -3380,7 +3726,7 @@
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="137" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="24" t="s">
@@ -3388,26 +3734,28 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="75" t="s">
-        <v>48</v>
+      <c r="G10" s="137" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="53"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="76"/>
+      <c r="G11" s="138"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
@@ -3416,9 +3764,9 @@
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
     </row>
@@ -3426,11 +3774,11 @@
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>48</v>
+      <c r="C14" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="118" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -3440,9 +3788,9 @@
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="53"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
@@ -3451,52 +3799,56 @@
         <v>20</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="40"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="139" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="18"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="140"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="75" t="s">
+      <c r="F18" s="63"/>
+      <c r="G18" s="139" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="76"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="140"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="41"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
@@ -3509,7 +3861,7 @@
       <c r="G21" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B4:G4"/>
@@ -3518,8 +3870,275 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="99">
+        <v>1</v>
+      </c>
+      <c r="E3" s="99" t="str">
+        <f>IF(D3=0,"NFB","FB")</f>
+        <v>FB</v>
+      </c>
+      <c r="F3" s="99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="94">
+        <v>0</v>
+      </c>
+      <c r="E4" s="94" t="str">
+        <f t="shared" ref="E4:E14" si="0">IF(D4=0,"NFB","FB")</f>
+        <v>NFB</v>
+      </c>
+      <c r="F4" s="94"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="99">
+        <v>1</v>
+      </c>
+      <c r="E5" s="99" t="str">
+        <f t="shared" si="0"/>
+        <v>FB</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="94">
+        <v>0</v>
+      </c>
+      <c r="E6" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>NFB</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="99">
+        <v>0</v>
+      </c>
+      <c r="E7" s="99" t="str">
+        <f t="shared" si="0"/>
+        <v>NFB</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="94">
+        <v>1</v>
+      </c>
+      <c r="E8" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>FB</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="122">
+        <v>0</v>
+      </c>
+      <c r="E9" s="122" t="str">
+        <f t="shared" si="0"/>
+        <v>NFB</v>
+      </c>
+      <c r="F9" s="122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="122">
+        <v>0</v>
+      </c>
+      <c r="E10" s="122" t="str">
+        <f t="shared" si="0"/>
+        <v>NFB</v>
+      </c>
+      <c r="F10" s="122" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="99">
+        <v>0</v>
+      </c>
+      <c r="E11" s="99" t="str">
+        <f t="shared" si="0"/>
+        <v>NFB</v>
+      </c>
+      <c r="F11" s="99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="94">
+        <v>1</v>
+      </c>
+      <c r="E12" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>FB</v>
+      </c>
+      <c r="F12" s="94" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="99">
+        <v>1</v>
+      </c>
+      <c r="E13" s="99" t="str">
+        <f t="shared" si="0"/>
+        <v>FB</v>
+      </c>
+      <c r="F13" s="99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="95" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="94">
+        <v>1</v>
+      </c>
+      <c r="E14" s="94" t="str">
+        <f t="shared" si="0"/>
+        <v>FB</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:E14">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NFB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"FB"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4:F5 C3:E3 C7:F7 C6:E6 C12 C10:E10 C9 C8:E8 C14 C13:E13 C11 E14 E11 E12 E9" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,9 @@
     <sheet name="Week 3" sheetId="3" r:id="rId3"/>
     <sheet name="Week 4" sheetId="4" r:id="rId4"/>
     <sheet name="Week 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Conditions" sheetId="6" r:id="rId6"/>
+    <sheet name="Session 9" sheetId="7" r:id="rId6"/>
+    <sheet name="Videos watched" sheetId="8" r:id="rId7"/>
+    <sheet name="Conditions" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="113">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -269,6 +271,105 @@
   </si>
   <si>
     <t>TOM NEEDS A REDO SOMETIME ON FIRDAY</t>
+  </si>
+  <si>
+    <t>Session 9</t>
+  </si>
+  <si>
+    <t>Complete?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Hi Valentina!</t>
+  </si>
+  <si>
+    <t>Thanks again for all your help with the experiment over the last couple of weeks, I hope it wasn’t too gruelling and the maths hasn’t changed your opinion of me too much!</t>
+  </si>
+  <si>
+    <t>Find attached your £50 Amazon voucher, hopefully it makes it all worth it!</t>
+  </si>
+  <si>
+    <t>As mentioned, there is no pressure at all, but if you are willing to take part in an extra session sometime this week that would be amazing, just let me know.</t>
+  </si>
+  <si>
+    <t>Cheers,</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>V. Version</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>P022</t>
+  </si>
+  <si>
+    <t>P023</t>
+  </si>
+  <si>
+    <t>P024</t>
+  </si>
+  <si>
+    <t>P025</t>
+  </si>
+  <si>
+    <t>P026</t>
+  </si>
+  <si>
+    <t>P029</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>P031</t>
+  </si>
+  <si>
+    <t>P032</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>Participant ID</t>
   </si>
 </sst>
 </file>
@@ -385,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="80">
     <border>
       <left/>
       <right/>
@@ -1449,11 +1550,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1522,9 +1632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,17 +1964,345 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1899,6 +2334,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:K12" totalsRowShown="0">
+  <autoFilter ref="B2:K12"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Participant ID"/>
+    <tableColumn id="2" name="S1" dataDxfId="8"/>
+    <tableColumn id="3" name="S2" dataDxfId="7"/>
+    <tableColumn id="4" name="S3" dataDxfId="6"/>
+    <tableColumn id="5" name="S4" dataDxfId="5"/>
+    <tableColumn id="6" name="S5" dataDxfId="4"/>
+    <tableColumn id="7" name="S6" dataDxfId="3"/>
+    <tableColumn id="8" name="S7" dataDxfId="2"/>
+    <tableColumn id="9" name="S8" dataDxfId="1"/>
+    <tableColumn id="10" name="S9" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2182,15 +2636,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -2206,29 +2660,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2267,16 +2721,16 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="128" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="57"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="56"/>
       <c r="I6" s="13"/>
       <c r="J6" s="3" t="s">
         <v>7</v>
@@ -2286,14 +2740,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="106"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="105"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -2303,18 +2757,18 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="128" t="s">
+      <c r="C8" s="134"/>
+      <c r="D8" s="127" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="128" t="s">
+      <c r="F8" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="118" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="19"/>
@@ -2326,47 +2780,47 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="129"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="65"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="64"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="137" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="89"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="119" t="s">
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="118" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2374,71 +2828,71 @@
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="128" t="s">
+      <c r="C14" s="86"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="119" t="s">
+      <c r="G14" s="118" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="57"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="128" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="127" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="110"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="129"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="128"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="113"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="112"/>
     </row>
     <row r="18" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="128" t="s">
+      <c r="C18" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="118" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="118" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="14" t="s">
@@ -2446,24 +2900,24 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="129"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="40"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="39"/>
     </row>
     <row r="20" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
@@ -2514,15 +2968,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -2538,29 +2992,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2599,20 +3053,20 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="119" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="118" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="13"/>
@@ -2624,15 +3078,15 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="67"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="66"/>
+      <c r="I7" s="118"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2644,17 +3098,17 @@
       <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="119" t="s">
+      <c r="F8" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="118" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="19"/>
@@ -2666,57 +3120,57 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="66"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="65"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="118" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="117" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="67"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="128" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="127" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="118" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2725,48 +3179,48 @@
         <v>17</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="52"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="136" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="119" t="s">
+      <c r="F14" s="114"/>
+      <c r="G14" s="118" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="35"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="119" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="118" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="119" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="118" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2774,51 +3228,51 @@
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="128" t="s">
+      <c r="D18" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="118" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="118" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="119" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="118" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="119" t="s">
+      <c r="F20" s="25"/>
+      <c r="G20" s="118" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2826,9 +3280,9 @@
       <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
     </row>
@@ -2868,15 +3322,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -2892,29 +3346,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2953,22 +3407,22 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="119" t="s">
+      <c r="E6" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="118" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="13"/>
@@ -2980,14 +3434,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="66"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -3000,19 +3454,19 @@
       <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="119" t="s">
+      <c r="F8" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="118" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="19"/>
@@ -3024,57 +3478,57 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="64"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="127"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="117" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="67"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="119" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="118" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="118" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3082,49 +3536,49 @@
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="50"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="119" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="118" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="40"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="118" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="117" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="119" t="s">
+      <c r="F16" s="37"/>
+      <c r="G16" s="118" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3132,59 +3586,59 @@
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="117" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="119" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="118" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="57"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="119" t="s">
+      <c r="C20" s="25"/>
+      <c r="D20" s="118" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="36"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23"/>
     </row>
@@ -3204,7 +3658,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection activeCell="G14" sqref="G14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,15 +3673,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -3243,29 +3697,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3304,20 +3758,20 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="119" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="118" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="13"/>
@@ -3329,14 +3783,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="67"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="66"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -3349,17 +3803,17 @@
       <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="118" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="119" t="s">
+      <c r="F8" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="128" t="s">
+      <c r="G8" s="127" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="19"/>
@@ -3371,14 +3825,14 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="129"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="128"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3388,7 +3842,7 @@
       <c r="C10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="119" t="s">
+      <c r="D10" s="118" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="11"/>
@@ -3400,28 +3854,28 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="67"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="119" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="118" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="119" t="s">
+      <c r="F12" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="128" t="s">
+      <c r="G12" s="127" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3429,49 +3883,49 @@
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="129"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="128"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="118" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="128" t="s">
+      <c r="F14" s="114"/>
+      <c r="G14" s="127" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="129"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="128"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="119" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="118" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="119" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="118" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3479,49 +3933,49 @@
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="128" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="118" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="57"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="36"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
@@ -3552,8 +4006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,15 +4022,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -3592,29 +4046,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="133"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3653,18 +4107,18 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="139" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="139" t="s">
+      <c r="G6" s="127" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="13"/>
@@ -3676,14 +4130,14 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -3693,15 +4147,15 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="17"/>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="3" t="s">
@@ -3712,11 +4166,11 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
@@ -3726,15 +4180,15 @@
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="118" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="137" t="s">
+      <c r="G10" s="136" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3742,18 +4196,18 @@
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="138"/>
+      <c r="G11" s="137"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="118" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="17"/>
@@ -3764,9 +4218,9 @@
       <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
     </row>
@@ -3774,10 +4228,10 @@
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="117" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="11"/>
@@ -3788,9 +4242,9 @@
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="49"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
@@ -3799,10 +4253,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="139" t="s">
+      <c r="G16" s="127" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3810,45 +4264,45 @@
       <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="140"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="128"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="24" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="139" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="127" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="140"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="128"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21" t="s">
@@ -3881,257 +4335,1084 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="142" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="143">
+        <v>1</v>
+      </c>
+      <c r="E3" s="143" t="str">
+        <f>IF(D3=0,"NFB","FB")</f>
+        <v>FB</v>
+      </c>
+      <c r="F3" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="146">
+        <v>45077</v>
+      </c>
+      <c r="H3" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="144" t="str">
+        <f t="shared" ref="I3:I8" si="0">IF(AND(J3&lt;&gt;"", J3&lt;&gt;"-"), "Y", "N")</f>
+        <v>Y</v>
+      </c>
+      <c r="J3" s="144">
+        <v>1</v>
+      </c>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="144">
+        <v>0</v>
+      </c>
+      <c r="E4" s="144" t="str">
+        <f t="shared" ref="E4:E14" si="1">IF(D4=0,"NFB","FB")</f>
+        <v>NFB</v>
+      </c>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="J4" s="144">
+        <v>2</v>
+      </c>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="142" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="143">
+        <v>1</v>
+      </c>
+      <c r="E5" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v>FB</v>
+      </c>
+      <c r="F5" s="143" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="146">
+        <v>45072</v>
+      </c>
+      <c r="H5" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="J5" s="144">
+        <v>3</v>
+      </c>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="144">
+        <v>0</v>
+      </c>
+      <c r="E6" s="144" t="str">
+        <f t="shared" si="1"/>
+        <v>NFB</v>
+      </c>
+      <c r="F6" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="147">
+        <v>45083</v>
+      </c>
+      <c r="H6" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="J6" s="144">
+        <v>0</v>
+      </c>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="143">
+        <v>0</v>
+      </c>
+      <c r="E7" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v>NFB</v>
+      </c>
+      <c r="F7" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="J7" s="144">
+        <v>4</v>
+      </c>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="145" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="144">
+        <v>1</v>
+      </c>
+      <c r="E8" s="144" t="str">
+        <f t="shared" si="1"/>
+        <v>FB</v>
+      </c>
+      <c r="F8" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="144" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="J8" s="144">
+        <v>5</v>
+      </c>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="148" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="149">
+        <v>0</v>
+      </c>
+      <c r="E9" s="149" t="str">
+        <f t="shared" si="1"/>
+        <v>NFB</v>
+      </c>
+      <c r="F9" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="149"/>
+      <c r="H9" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="144" t="str">
+        <f>IF(AND(J9&lt;&gt;"", J9&lt;&gt;"-"), "Y", "N")</f>
+        <v>N</v>
+      </c>
+      <c r="J9" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="149">
+        <v>0</v>
+      </c>
+      <c r="E10" s="149" t="str">
+        <f t="shared" si="1"/>
+        <v>NFB</v>
+      </c>
+      <c r="F10" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="149"/>
+      <c r="H10" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="144" t="str">
+        <f>IF(AND(J10&lt;&gt;"", J10&lt;&gt;"-"), "Y", "N")</f>
+        <v>N</v>
+      </c>
+      <c r="J10" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="143">
+        <v>0</v>
+      </c>
+      <c r="E11" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v>NFB</v>
+      </c>
+      <c r="F11" s="143" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="144" t="str">
+        <f t="shared" ref="I11:I14" si="2">IF(AND(J11&lt;&gt;"", J11&lt;&gt;"-"), "Y", "N")</f>
+        <v>Y</v>
+      </c>
+      <c r="J11" s="144">
+        <v>6</v>
+      </c>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="144">
+        <v>1</v>
+      </c>
+      <c r="E12" s="144" t="str">
+        <f t="shared" si="1"/>
+        <v>FB</v>
+      </c>
+      <c r="F12" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="147">
+        <v>45076</v>
+      </c>
+      <c r="H12" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="144" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="J12" s="144">
+        <v>7</v>
+      </c>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="143">
+        <v>1</v>
+      </c>
+      <c r="E13" s="143" t="str">
+        <f t="shared" si="1"/>
+        <v>FB</v>
+      </c>
+      <c r="F13" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="146">
+        <v>45078</v>
+      </c>
+      <c r="H13" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="144" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="J13" s="144">
+        <v>8</v>
+      </c>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="144">
+        <v>1</v>
+      </c>
+      <c r="E14" s="144" t="str">
+        <f t="shared" si="1"/>
+        <v>FB</v>
+      </c>
+      <c r="F14" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="147">
+        <v>45077</v>
+      </c>
+      <c r="H14" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="144" t="str">
+        <f t="shared" si="2"/>
+        <v>Y</v>
+      </c>
+      <c r="J14" s="144">
+        <v>9</v>
+      </c>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+    </row>
+    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P18" s="138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="138"/>
+    </row>
+    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="138"/>
+    </row>
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="138" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="138"/>
+    </row>
+    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P25" s="138"/>
+    </row>
+    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="138" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="138" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:E14">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+      <formula>"NFB"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>"FB"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H14">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="D">
+      <formula>NOT(ISERROR(SEARCH("D",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",H3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="6" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",H3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I14">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",I3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",I3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J10">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="150" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="150" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="144"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="150" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="144"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="144" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="150" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="144"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="150" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="144" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="144"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="150" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="150" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="150" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="150" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C3:K12">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="93" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="92" customWidth="1"/>
     <col min="4" max="4" width="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100" t="s">
+      <c r="D2" s="99"/>
+      <c r="E2" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="99" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="98">
         <v>1</v>
       </c>
-      <c r="E3" s="99" t="str">
+      <c r="E3" s="98" t="str">
         <f>IF(D3=0,"NFB","FB")</f>
         <v>FB</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="98" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="93">
         <v>0</v>
       </c>
-      <c r="E4" s="94" t="str">
+      <c r="E4" s="93" t="str">
         <f t="shared" ref="E4:E14" si="0">IF(D4=0,"NFB","FB")</f>
         <v>NFB</v>
       </c>
-      <c r="F4" s="94"/>
+      <c r="F4" s="93"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="98">
         <v>1</v>
       </c>
-      <c r="E5" s="99" t="str">
+      <c r="E5" s="98" t="str">
         <f t="shared" si="0"/>
         <v>FB</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="98" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="93">
         <v>0</v>
       </c>
-      <c r="E6" s="94" t="str">
+      <c r="E6" s="93" t="str">
         <f t="shared" si="0"/>
         <v>NFB</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="93" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="98">
         <v>0</v>
       </c>
-      <c r="E7" s="99" t="str">
+      <c r="E7" s="98" t="str">
         <f t="shared" si="0"/>
         <v>NFB</v>
       </c>
-      <c r="F7" s="99" t="s">
+      <c r="F7" s="98" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="93">
         <v>1</v>
       </c>
-      <c r="E8" s="94" t="str">
+      <c r="E8" s="93" t="str">
         <f t="shared" si="0"/>
         <v>FB</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="93" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="122">
+      <c r="D9" s="121">
         <v>0</v>
       </c>
-      <c r="E9" s="122" t="str">
+      <c r="E9" s="121" t="str">
         <f t="shared" si="0"/>
         <v>NFB</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="121" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="120" t="s">
+      <c r="B10" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="122">
+      <c r="D10" s="121">
         <v>0</v>
       </c>
-      <c r="E10" s="122" t="str">
+      <c r="E10" s="121" t="str">
         <f t="shared" si="0"/>
         <v>NFB</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="121" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="98">
         <v>0</v>
       </c>
-      <c r="E11" s="99" t="str">
+      <c r="E11" s="98" t="str">
         <f t="shared" si="0"/>
         <v>NFB</v>
       </c>
-      <c r="F11" s="99" t="s">
+      <c r="F11" s="98" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="93">
         <v>1</v>
       </c>
-      <c r="E12" s="94" t="str">
+      <c r="E12" s="93" t="str">
         <f t="shared" si="0"/>
         <v>FB</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="93" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D13" s="98">
         <v>1</v>
       </c>
-      <c r="E13" s="99" t="str">
+      <c r="E13" s="98" t="str">
         <f t="shared" si="0"/>
         <v>FB</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="98" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="93">
         <v>1</v>
       </c>
-      <c r="E14" s="94" t="str">
+      <c r="E14" s="93" t="str">
         <f t="shared" si="0"/>
         <v>FB</v>
       </c>
-      <c r="F14" s="94" t="s">
+      <c r="F14" s="93" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E14">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"NFB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"FB"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="107">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -289,24 +289,6 @@
   </si>
   <si>
     <t>Paid</t>
-  </si>
-  <si>
-    <t>Hi Valentina!</t>
-  </si>
-  <si>
-    <t>Thanks again for all your help with the experiment over the last couple of weeks, I hope it wasn’t too gruelling and the maths hasn’t changed your opinion of me too much!</t>
-  </si>
-  <si>
-    <t>Find attached your £50 Amazon voucher, hopefully it makes it all worth it!</t>
-  </si>
-  <si>
-    <t>As mentioned, there is no pressure at all, but if you are willing to take part in an extra session sometime this week that would be amazing, just let me know.</t>
-  </si>
-  <si>
-    <t>Cheers,</t>
-  </si>
-  <si>
-    <t>Alex</t>
   </si>
   <si>
     <t>V. Version</t>
@@ -1931,39 +1913,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2001,11 +1950,64 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -2225,26 +2227,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2341,15 +2323,15 @@
   <autoFilter ref="B2:K12"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Participant ID"/>
-    <tableColumn id="2" name="S1" dataDxfId="8"/>
-    <tableColumn id="3" name="S2" dataDxfId="7"/>
-    <tableColumn id="4" name="S3" dataDxfId="6"/>
-    <tableColumn id="5" name="S4" dataDxfId="5"/>
-    <tableColumn id="6" name="S5" dataDxfId="4"/>
-    <tableColumn id="7" name="S6" dataDxfId="3"/>
-    <tableColumn id="8" name="S7" dataDxfId="2"/>
-    <tableColumn id="9" name="S8" dataDxfId="1"/>
-    <tableColumn id="10" name="S9" dataDxfId="0"/>
+    <tableColumn id="2" name="S1" dataDxfId="10"/>
+    <tableColumn id="3" name="S2" dataDxfId="9"/>
+    <tableColumn id="4" name="S3" dataDxfId="8"/>
+    <tableColumn id="5" name="S4" dataDxfId="7"/>
+    <tableColumn id="6" name="S5" dataDxfId="6"/>
+    <tableColumn id="7" name="S6" dataDxfId="5"/>
+    <tableColumn id="8" name="S7" dataDxfId="4"/>
+    <tableColumn id="9" name="S8" dataDxfId="3"/>
+    <tableColumn id="10" name="S9" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2636,15 +2618,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -2660,29 +2642,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="133"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -2725,7 +2707,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="102"/>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="140" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="24"/>
@@ -2744,7 +2726,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="103"/>
-      <c r="D7" s="128"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="24"/>
       <c r="F7" s="84"/>
       <c r="G7" s="105"/>
@@ -2760,12 +2742,12 @@
       <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="134"/>
-      <c r="D8" s="127" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="140" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="127" t="s">
+      <c r="F8" s="140" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="118" t="s">
@@ -2783,10 +2765,10 @@
       <c r="B9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="128"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="17"/>
-      <c r="F9" s="128"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="64"/>
       <c r="I9" s="20"/>
     </row>
@@ -2797,7 +2779,7 @@
       <c r="C10" s="81"/>
       <c r="D10" s="83"/>
       <c r="E10" s="48"/>
-      <c r="F10" s="136" t="s">
+      <c r="F10" s="149" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="88"/>
@@ -2809,7 +2791,7 @@
       <c r="C11" s="82"/>
       <c r="D11" s="82"/>
       <c r="E11" s="42"/>
-      <c r="F11" s="137"/>
+      <c r="F11" s="150"/>
       <c r="G11" s="87"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2841,7 +2823,7 @@
       <c r="C14" s="86"/>
       <c r="D14" s="85"/>
       <c r="E14" s="47"/>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="140" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="118" t="s">
@@ -2855,7 +2837,7 @@
       <c r="C15" s="82"/>
       <c r="D15" s="84"/>
       <c r="E15" s="70"/>
-      <c r="F15" s="128"/>
+      <c r="F15" s="141"/>
       <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2863,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="25"/>
-      <c r="D16" s="127" t="s">
+      <c r="D16" s="140" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="17"/>
@@ -2875,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="128"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="17"/>
       <c r="F17" s="53"/>
       <c r="G17" s="112"/>
@@ -2884,7 +2866,7 @@
       <c r="B18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="140" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="101"/>
@@ -2903,7 +2885,7 @@
       <c r="B19" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="128"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="106"/>
       <c r="E19" s="68"/>
       <c r="F19" s="57"/>
@@ -2968,15 +2950,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -2992,29 +2974,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="133"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3056,7 +3038,7 @@
       <c r="B6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="140" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="118" t="s">
@@ -3081,7 +3063,7 @@
       <c r="B7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="141"/>
       <c r="D7" s="52"/>
       <c r="E7" s="75"/>
       <c r="F7" s="90"/>
@@ -3137,7 +3119,7 @@
       <c r="C10" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="127" t="s">
+      <c r="D10" s="140" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="42"/>
@@ -3153,7 +3135,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="71"/>
-      <c r="D11" s="128"/>
+      <c r="D11" s="141"/>
       <c r="E11" s="73"/>
       <c r="F11" s="72"/>
       <c r="G11" s="66"/>
@@ -3163,7 +3145,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="140" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="17"/>
@@ -3179,7 +3161,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="128"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="46"/>
       <c r="F13" s="36"/>
       <c r="G13" s="51"/>
@@ -3191,7 +3173,7 @@
       <c r="C14" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="149" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="11"/>
@@ -3205,7 +3187,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="44"/>
-      <c r="D15" s="137"/>
+      <c r="D15" s="150"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="34"/>
@@ -3241,7 +3223,7 @@
       <c r="C18" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="140" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="24"/>
@@ -3257,7 +3239,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="60"/>
-      <c r="D19" s="128"/>
+      <c r="D19" s="141"/>
       <c r="E19" s="24"/>
       <c r="F19" s="60"/>
       <c r="G19" s="61"/>
@@ -3322,15 +3304,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -3346,29 +3328,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="133"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3673,15 +3655,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -3697,29 +3679,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="133"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3813,7 +3795,7 @@
       <c r="F8" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="127" t="s">
+      <c r="G8" s="140" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="19"/>
@@ -3832,7 +3814,7 @@
       <c r="D9" s="41"/>
       <c r="E9" s="76"/>
       <c r="F9" s="80"/>
-      <c r="G9" s="128"/>
+      <c r="G9" s="141"/>
       <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,7 +3857,7 @@
       <c r="F12" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="140" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3887,7 +3869,7 @@
       <c r="D13" s="113"/>
       <c r="E13" s="76"/>
       <c r="F13" s="116"/>
-      <c r="G13" s="128"/>
+      <c r="G13" s="141"/>
     </row>
     <row r="14" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
@@ -3901,7 +3883,7 @@
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="114"/>
-      <c r="G14" s="127" t="s">
+      <c r="G14" s="140" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3913,7 +3895,7 @@
       <c r="D15" s="67"/>
       <c r="E15" s="68"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="128"/>
+      <c r="G15" s="141"/>
     </row>
     <row r="16" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
@@ -3950,7 +3932,7 @@
         <v>45</v>
       </c>
       <c r="E18" s="24"/>
-      <c r="F18" s="127" t="s">
+      <c r="F18" s="140" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="118" t="s">
@@ -3964,7 +3946,7 @@
       <c r="C19" s="60"/>
       <c r="D19" s="57"/>
       <c r="E19" s="70"/>
-      <c r="F19" s="128"/>
+      <c r="F19" s="141"/>
       <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4022,15 +4004,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -4046,29 +4028,29 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="133"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="146"/>
       <c r="H4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -4115,10 +4097,10 @@
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="24"/>
-      <c r="F6" s="127" t="s">
+      <c r="F6" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="127" t="s">
+      <c r="G6" s="140" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="13"/>
@@ -4136,8 +4118,8 @@
       <c r="C7" s="89"/>
       <c r="D7" s="48"/>
       <c r="E7" s="43"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
       <c r="I7" s="15"/>
       <c r="J7" s="3" t="s">
         <v>7</v>
@@ -4150,7 +4132,7 @@
       <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="140" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="45"/>
@@ -4169,7 +4151,7 @@
       <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="128"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="45"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -4180,7 +4162,7 @@
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="149" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="118" t="s">
@@ -4188,7 +4170,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="136" t="s">
+      <c r="G10" s="149" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4196,11 +4178,11 @@
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="137"/>
+      <c r="C11" s="150"/>
       <c r="D11" s="33"/>
       <c r="E11" s="48"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="137"/>
+      <c r="G11" s="150"/>
     </row>
     <row r="12" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
@@ -4228,7 +4210,7 @@
       <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="140" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="117" t="s">
@@ -4242,7 +4224,7 @@
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="128"/>
+      <c r="C15" s="141"/>
       <c r="D15" s="69"/>
       <c r="E15" s="48"/>
       <c r="F15" s="11"/>
@@ -4256,7 +4238,7 @@
       <c r="D16" s="37"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="127" t="s">
+      <c r="G16" s="140" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4268,7 +4250,7 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="128"/>
+      <c r="G17" s="141"/>
     </row>
     <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="59" t="s">
@@ -4280,7 +4262,7 @@
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="62"/>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="140" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4292,7 +4274,7 @@
       <c r="D19" s="40"/>
       <c r="E19" s="47"/>
       <c r="F19" s="63"/>
-      <c r="G19" s="128"/>
+      <c r="G19" s="141"/>
     </row>
     <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
@@ -4338,7 +4320,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,493 +4336,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="G2" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="140" t="s">
+      <c r="H2" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="141" t="s">
+      <c r="I2" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="141" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
+      <c r="J2" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="143">
+      <c r="D3" s="132">
         <v>1</v>
       </c>
-      <c r="E3" s="143" t="str">
+      <c r="E3" s="132" t="str">
         <f>IF(D3=0,"NFB","FB")</f>
         <v>FB</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="146">
-        <v>45077</v>
-      </c>
-      <c r="H3" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="144" t="str">
+      <c r="G3" s="135">
+        <v>45083</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="133" t="str">
         <f t="shared" ref="I3:I8" si="0">IF(AND(J3&lt;&gt;"", J3&lt;&gt;"-"), "Y", "N")</f>
         <v>Y</v>
       </c>
-      <c r="J3" s="144">
+      <c r="J3" s="133">
         <v>1</v>
       </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="144">
+      <c r="D4" s="133">
         <v>0</v>
       </c>
-      <c r="E4" s="144" t="str">
+      <c r="E4" s="133" t="str">
         <f t="shared" ref="E4:E14" si="1">IF(D4=0,"NFB","FB")</f>
         <v>NFB</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="I4" s="144" t="str">
+      <c r="F4" s="133"/>
+      <c r="G4" s="136">
+        <v>45082</v>
+      </c>
+      <c r="H4" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="133" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="J4" s="144">
+      <c r="J4" s="133">
         <v>2</v>
       </c>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="132">
         <v>1</v>
       </c>
-      <c r="E5" s="143" t="str">
+      <c r="E5" s="132" t="str">
         <f t="shared" si="1"/>
         <v>FB</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="146">
+      <c r="G5" s="135">
         <v>45072</v>
       </c>
-      <c r="H5" s="143" t="s">
+      <c r="H5" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="144" t="str">
+      <c r="I5" s="133" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="J5" s="144">
+      <c r="J5" s="133">
         <v>3</v>
       </c>
-      <c r="K5" s="139"/>
-      <c r="L5" s="139"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="144">
+      <c r="D6" s="133">
         <v>0</v>
       </c>
-      <c r="E6" s="144" t="str">
+      <c r="E6" s="133" t="str">
         <f t="shared" si="1"/>
         <v>NFB</v>
       </c>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="147">
-        <v>45083</v>
-      </c>
-      <c r="H6" s="144" t="s">
+      <c r="G6" s="136"/>
+      <c r="H6" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="144" t="str">
+      <c r="I6" s="133" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="J6" s="144">
+      <c r="J6" s="133">
         <v>0</v>
       </c>
-      <c r="K6" s="139"/>
-      <c r="L6" s="139"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="132">
         <v>0</v>
       </c>
-      <c r="E7" s="143" t="str">
+      <c r="E7" s="132" t="str">
         <f t="shared" si="1"/>
         <v>NFB</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="132" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143" t="s">
+      <c r="G7" s="135">
+        <v>45084</v>
+      </c>
+      <c r="H7" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="144" t="str">
+      <c r="I7" s="133" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="J7" s="144">
+      <c r="J7" s="133">
         <v>4</v>
       </c>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="145" t="s">
+      <c r="C8" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="144">
+      <c r="D8" s="133">
         <v>1</v>
       </c>
-      <c r="E8" s="144" t="str">
+      <c r="E8" s="133" t="str">
         <f t="shared" si="1"/>
         <v>FB</v>
       </c>
-      <c r="F8" s="144" t="s">
+      <c r="F8" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144" t="s">
+      <c r="G8" s="133"/>
+      <c r="H8" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="144" t="str">
+      <c r="I8" s="133" t="str">
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="J8" s="144">
+      <c r="J8" s="133">
         <v>5</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="149">
+      <c r="D9" s="138">
         <v>0</v>
       </c>
-      <c r="E9" s="149" t="str">
+      <c r="E9" s="138" t="str">
         <f t="shared" si="1"/>
         <v>NFB</v>
       </c>
-      <c r="F9" s="149" t="s">
+      <c r="F9" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="149"/>
-      <c r="H9" s="143" t="s">
+      <c r="G9" s="138"/>
+      <c r="H9" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="144" t="str">
+      <c r="I9" s="133" t="str">
         <f>IF(AND(J9&lt;&gt;"", J9&lt;&gt;"-"), "Y", "N")</f>
         <v>N</v>
       </c>
-      <c r="J9" s="149" t="s">
+      <c r="J9" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="149">
+      <c r="D10" s="138">
         <v>0</v>
       </c>
-      <c r="E10" s="149" t="str">
+      <c r="E10" s="138" t="str">
         <f t="shared" si="1"/>
         <v>NFB</v>
       </c>
-      <c r="F10" s="149" t="s">
+      <c r="F10" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="149"/>
-      <c r="H10" s="144" t="s">
+      <c r="G10" s="138"/>
+      <c r="H10" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="144" t="str">
+      <c r="I10" s="133" t="str">
         <f>IF(AND(J10&lt;&gt;"", J10&lt;&gt;"-"), "Y", "N")</f>
         <v>N</v>
       </c>
-      <c r="J10" s="149" t="s">
+      <c r="J10" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="142" t="s">
+      <c r="C11" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="132">
         <v>0</v>
       </c>
-      <c r="E11" s="143" t="str">
+      <c r="E11" s="132" t="str">
         <f t="shared" si="1"/>
         <v>NFB</v>
       </c>
-      <c r="F11" s="143" t="s">
+      <c r="F11" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="144" t="str">
+      <c r="G11" s="135">
+        <v>45084</v>
+      </c>
+      <c r="H11" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="133" t="str">
         <f t="shared" ref="I11:I14" si="2">IF(AND(J11&lt;&gt;"", J11&lt;&gt;"-"), "Y", "N")</f>
         <v>Y</v>
       </c>
-      <c r="J11" s="144">
+      <c r="J11" s="133">
         <v>6</v>
       </c>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="144">
+      <c r="D12" s="133">
         <v>1</v>
       </c>
-      <c r="E12" s="144" t="str">
+      <c r="E12" s="133" t="str">
         <f t="shared" si="1"/>
         <v>FB</v>
       </c>
-      <c r="F12" s="144" t="s">
+      <c r="F12" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="147">
+      <c r="G12" s="136">
         <v>45076</v>
       </c>
-      <c r="H12" s="144" t="s">
+      <c r="H12" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="144" t="str">
+      <c r="I12" s="133" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="J12" s="144">
+      <c r="J12" s="133">
         <v>7</v>
       </c>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="142" t="s">
+      <c r="C13" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="132">
         <v>1</v>
       </c>
-      <c r="E13" s="143" t="str">
+      <c r="E13" s="132" t="str">
         <f t="shared" si="1"/>
         <v>FB</v>
       </c>
-      <c r="F13" s="143" t="s">
+      <c r="F13" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="146">
+      <c r="G13" s="135">
         <v>45078</v>
       </c>
-      <c r="H13" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="144" t="str">
+      <c r="H13" s="132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="133" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="J13" s="144">
+      <c r="J13" s="133">
         <v>8</v>
       </c>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="145" t="s">
+      <c r="C14" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="144">
+      <c r="D14" s="133">
         <v>1</v>
       </c>
-      <c r="E14" s="144" t="str">
+      <c r="E14" s="133" t="str">
         <f t="shared" si="1"/>
         <v>FB</v>
       </c>
-      <c r="F14" s="144" t="s">
+      <c r="F14" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="147">
-        <v>45077</v>
-      </c>
-      <c r="H14" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="144" t="str">
+      <c r="G14" s="136">
+        <v>45083</v>
+      </c>
+      <c r="H14" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="133" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
-      <c r="J14" s="144">
+      <c r="J14" s="133">
         <v>9</v>
       </c>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
     </row>
     <row r="18" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P18" s="138" t="s">
-        <v>86</v>
-      </c>
+      <c r="P18" s="127"/>
     </row>
     <row r="19" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P19" s="138"/>
+      <c r="P19" s="127"/>
     </row>
     <row r="20" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P20" s="138" t="s">
-        <v>87</v>
-      </c>
+      <c r="P20" s="127"/>
     </row>
     <row r="21" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P21" s="138"/>
+      <c r="P21" s="127"/>
     </row>
     <row r="22" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P22" s="138" t="s">
-        <v>88</v>
-      </c>
+      <c r="P22" s="127"/>
     </row>
     <row r="23" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P23" s="138"/>
+      <c r="P23" s="127"/>
     </row>
     <row r="24" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P24" s="138" t="s">
-        <v>89</v>
-      </c>
+      <c r="P24" s="127"/>
     </row>
     <row r="25" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P25" s="138"/>
+      <c r="P25" s="127"/>
     </row>
     <row r="26" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P26" s="138" t="s">
-        <v>90</v>
-      </c>
+      <c r="P26" s="127"/>
     </row>
     <row r="27" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P27" s="138" t="s">
-        <v>91</v>
-      </c>
+      <c r="P27" s="127"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E14">
@@ -4894,262 +4868,262 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="150" t="s">
-        <v>112</v>
+      <c r="B2" s="139" t="s">
+        <v>106</v>
       </c>
       <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="133"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="139" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="133"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="133" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="133"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="133"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="K3" s="144"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="150" t="s">
+      <c r="C9" s="133"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" s="144"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="150" t="s">
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" s="144" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="150" t="s">
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133"/>
+      <c r="K11" s="133"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="144"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="144" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="144"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="150" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="150" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="150" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="150" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="150" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:K12">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5409,10 +5383,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E14">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NFB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"FB"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="107">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -4319,7 +4319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -4858,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5055,70 +5055,150 @@
       <c r="B8" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
+      <c r="C8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="133" t="s">
+        <v>82</v>
+      </c>
       <c r="K8" s="133"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
+      <c r="C9" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="133" t="s">
+        <v>82</v>
+      </c>
       <c r="K9" s="133"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
+      <c r="C10" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="133" t="s">
+        <v>82</v>
+      </c>
       <c r="K10" s="133"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
+      <c r="C11" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="133" t="s">
+        <v>82</v>
+      </c>
       <c r="K11" s="133"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="133"/>
+      <c r="C12" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="133" t="s">
+        <v>82</v>
+      </c>
       <c r="K12" s="133"/>
     </row>
   </sheetData>

--- a/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
+++ b/ExaminerTools/Docs and Forms/Attendance&Timekeeping_RND2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="107">
   <si>
     <t xml:space="preserve">Restoring Natural Touch to Active Prosthesis Users: </t>
   </si>
@@ -4320,7 +4320,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4525,7 +4525,7 @@
         <v>45084</v>
       </c>
       <c r="H7" s="132" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I7" s="133" t="str">
         <f t="shared" si="0"/>
@@ -4859,7 +4859,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4927,7 +4927,9 @@
       <c r="J3" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="K3" s="133"/>
+      <c r="K3" s="133" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="139" t="s">
@@ -4957,7 +4959,9 @@
       <c r="J4" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="133"/>
+      <c r="K4" s="133" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="139" t="s">
@@ -5019,7 +5023,9 @@
       <c r="J6" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="133"/>
+      <c r="K6" s="133" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="139" t="s">
@@ -5049,7 +5055,9 @@
       <c r="J7" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="133"/>
+      <c r="K7" s="133" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="139" t="s">
@@ -5079,7 +5087,9 @@
       <c r="J8" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="133"/>
+      <c r="K8" s="133" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="139" t="s">
@@ -5109,7 +5119,9 @@
       <c r="J9" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="133"/>
+      <c r="K9" s="133" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="139" t="s">
@@ -5139,7 +5151,9 @@
       <c r="J10" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="133"/>
+      <c r="K10" s="133" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="139" t="s">
@@ -5169,7 +5183,9 @@
       <c r="J11" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="133"/>
+      <c r="K11" s="133" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="139" t="s">
@@ -5199,7 +5215,9 @@
       <c r="J12" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="133"/>
+      <c r="K12" s="133" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:K12">
